--- a/CRA_conditions.xlsx
+++ b/CRA_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gseagles-my.sharepoint.com/personal/vwickline_georgiasouthern_edu/Documents/crat/GITHUB/CRATpsyc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1683C38B-88ED-48E3-A8C0-DA4B70F6E37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1683C38B-88ED-48E3-A8C0-DA4B70F6E37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49D61F4A-D708-41E9-A7C0-A6CEDF53890D}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="13740" windowHeight="23520" xr2:uid="{33348A00-D98D-4A10-8EC8-2FAB2CBFAF36}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="5">
   <si>
     <t>word1</t>
   </si>
@@ -34,649 +34,7 @@
     <t>solution</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>alley</t>
-  </si>
-  <si>
-    <t>fold</t>
-  </si>
-  <si>
-    <t>blind</t>
-  </si>
-  <si>
-    <t>loser</t>
-  </si>
-  <si>
-    <t>throat</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>sore</t>
-  </si>
-  <si>
-    <t>fountain</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>soda</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>mine</t>
-  </si>
-  <si>
-    <t>rush</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>cracker</t>
-  </si>
-  <si>
-    <t>fly</t>
-  </si>
-  <si>
-    <t>fighter</t>
-  </si>
-  <si>
-    <t>fire</t>
-  </si>
-  <si>
-    <t>night</t>
-  </si>
-  <si>
-    <t>wrist</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>duck</t>
-  </si>
-  <si>
-    <t>dollar</t>
-  </si>
-  <si>
-    <t>bill</t>
-  </si>
-  <si>
-    <t>dream</t>
-  </si>
-  <si>
-    <t>break</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>worm</t>
-  </si>
-  <si>
-    <t>shelf</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>cane</t>
-  </si>
-  <si>
-    <t>daddy</t>
-  </si>
-  <si>
-    <t>plum</t>
-  </si>
-  <si>
-    <t>sugar</t>
-  </si>
-  <si>
-    <t>aid</t>
-  </si>
-  <si>
-    <t>rubber</t>
-  </si>
-  <si>
-    <t>waggon</t>
-  </si>
-  <si>
-    <t>band</t>
-  </si>
-  <si>
-    <t>flake</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
-    <t>cone</t>
-  </si>
-  <si>
-    <t>snow</t>
-  </si>
-  <si>
-    <t>sleeping</t>
-  </si>
-  <si>
-    <t>bean</t>
-  </si>
-  <si>
-    <t>trash</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>preserve</t>
-  </si>
-  <si>
-    <t>ranger</t>
-  </si>
-  <si>
-    <t>tropical</t>
-  </si>
-  <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>fox</t>
-  </si>
-  <si>
-    <t>man</t>
-  </si>
-  <si>
-    <t>peep</t>
-  </si>
-  <si>
-    <t>hole</t>
-  </si>
-  <si>
-    <t>hound</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>account</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>candle</t>
-  </si>
-  <si>
-    <t>main</t>
-  </si>
-  <si>
-    <t>sweeper</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>peach</t>
-  </si>
-  <si>
-    <t>arm</t>
-  </si>
-  <si>
-    <t>tar</t>
-  </si>
-  <si>
-    <t>pit</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>courtesy</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>common</t>
-  </si>
-  <si>
-    <t>cadet</t>
-  </si>
-  <si>
-    <t>capsule</t>
-  </si>
-  <si>
-    <t>ship</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>carbon</t>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>shaker</t>
-  </si>
-  <si>
-    <t>salt</t>
-  </si>
-  <si>
-    <t>clip</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>mill</t>
-  </si>
-  <si>
-    <t>tooth</t>
-  </si>
-  <si>
-    <t>dust</t>
-  </si>
-  <si>
-    <t>saw</t>
-  </si>
-  <si>
-    <t>political</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>carpet</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>ink</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>french</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>shoe</t>
-  </si>
-  <si>
-    <t>horn</t>
-  </si>
-  <si>
-    <t>palm</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>sage</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>hair</t>
-  </si>
-  <si>
-    <t>brush</t>
-  </si>
-  <si>
-    <t>opera</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>soap</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>drag</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>basket</t>
-  </si>
-  <si>
-    <t>eight</t>
-  </si>
-  <si>
-    <t>ball</t>
-  </si>
-  <si>
-    <t>thumb</t>
-  </si>
-  <si>
-    <t>pepper</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>mind</t>
-  </si>
-  <si>
-    <t>dating</t>
-  </si>
-  <si>
-    <t>game</t>
-  </si>
-  <si>
-    <t>office</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>hat</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>scout</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>fur</t>
-  </si>
-  <si>
-    <t>rack</t>
-  </si>
-  <si>
-    <t>tail</t>
-  </si>
-  <si>
-    <t>coat</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>wagon</t>
-  </si>
-  <si>
-    <t>radio</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>pile</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>hammer</t>
-  </si>
-  <si>
-    <t>gear</t>
-  </si>
-  <si>
-    <t>hunter</t>
-  </si>
-  <si>
-    <t>head</t>
-  </si>
-  <si>
-    <t>lift</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>mask</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dress</t>
-  </si>
-  <si>
-    <t>dial</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>tank</t>
-  </si>
-  <si>
-    <t>hill</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>cross</t>
-  </si>
-  <si>
-    <t>rain</t>
-  </si>
-  <si>
-    <t>tie</t>
-  </si>
-  <si>
-    <t>bow</t>
-  </si>
-  <si>
-    <t>tomato</t>
-  </si>
-  <si>
-    <t>bomb</t>
-  </si>
-  <si>
-    <t>picker</t>
-  </si>
-  <si>
-    <t>cherry</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>wear</t>
-  </si>
-  <si>
-    <t>under</t>
-  </si>
-  <si>
-    <t>dow</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>cereal</t>
-  </si>
-  <si>
-    <t>bowl</t>
-  </si>
-  <si>
-    <t>dive</t>
-  </si>
-  <si>
-    <t>rocket</t>
-  </si>
-  <si>
-    <t>sky</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>tower</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
-    <t>spoon</t>
-  </si>
-  <si>
-    <t>cloth</t>
-  </si>
-  <si>
-    <t>table</t>
-  </si>
-  <si>
-    <t>hungry</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>belt</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>trip</t>
-  </si>
-  <si>
-    <t>goal</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>birth</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66AED80-32AC-4A67-9178-FE3DE7250100}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1562,839 +922,839 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>91</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>125</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>128</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>133</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="B37" t="s">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>137</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>144</v>
+        <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>148</v>
+        <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>149</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>152</v>
+        <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="B42" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D42" t="s">
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>159</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="B44" t="s">
-        <v>160</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>4</v>
       </c>
       <c r="B46" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>4</v>
       </c>
       <c r="D46" t="s">
-        <v>170</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>174</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>181</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>183</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>184</v>
+        <v>4</v>
       </c>
       <c r="D50" t="s">
-        <v>185</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>4</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>188</v>
+        <v>4</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>192</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="B53" t="s">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>195</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>196</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="D54" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>4</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>203</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>204</v>
+        <v>4</v>
       </c>
       <c r="D57" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>207</v>
+        <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>172</v>
+        <v>4</v>
       </c>
       <c r="D58" t="s">
-        <v>208</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>209</v>
+        <v>4</v>
       </c>
       <c r="B59" t="s">
-        <v>210</v>
+        <v>4</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="D59" t="s">
-        <v>212</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>213</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>4</v>
       </c>
       <c r="C60" t="s">
-        <v>214</v>
+        <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>215</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>4</v>
       </c>
       <c r="B61" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>4</v>
       </c>
       <c r="D61" t="s">
-        <v>218</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
